--- a/src/res/bill-template.xlsx
+++ b/src/res/bill-template.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Zen Enterprise" sheetId="1" r:id="rId1"/>
     <sheet name="Euro Enterprise" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Euro Enterprise'!$A$1:$K$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Zen Enterprise'!$A$1:$K$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Euro Enterprise'!$A$1:$K$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Zen Enterprise'!$A$1:$K$58</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -441,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -547,10 +547,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,6 +570,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,96 +663,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,6 +685,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="266700"/>
+          <a:ext cx="5324475" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="342900"/>
+          <a:ext cx="5076825" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -983,7 +1078,7 @@
   <dimension ref="A3:V58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -999,32 +1094,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="15" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="1:14" ht="9.75" customHeight="1">
       <c r="C5" s="1"/>
@@ -1037,64 +1132,64 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="1:14" ht="7.5" customHeight="1">
       <c r="C10" s="2"/>
@@ -1115,17 +1210,17 @@
       <c r="I11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="1:14" ht="15.75">
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="7" t="s">
         <v>3</v>
       </c>
@@ -1133,45 +1228,45 @@
       <c r="I12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="41" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="42" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="84"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="9.75" customHeight="1" thickBot="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1180,18 +1275,18 @@
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="71"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="68"/>
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:22" ht="10.5" customHeight="1">
@@ -1211,34 +1306,34 @@
       <c r="B18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="11" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="72"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="30"/>
       <c r="B19" s="29"/>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="12"/>
       <c r="I19" s="13"/>
       <c r="J19" s="23" t="str">
@@ -1253,14 +1348,14 @@
     </row>
     <row r="20" spans="1:22">
       <c r="B20" s="14"/>
-      <c r="C20" s="55" t="str">
+      <c r="C20" s="57" t="str">
         <f>IF(R20="","",R20)</f>
         <v/>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="15"/>
       <c r="I20" s="16"/>
       <c r="J20" s="24" t="str">
@@ -1282,14 +1377,14 @@
     </row>
     <row r="21" spans="1:22">
       <c r="B21" s="14"/>
-      <c r="C21" s="55" t="str">
+      <c r="C21" s="57" t="str">
         <f>IF(R21="","",R21)</f>
         <v/>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="17"/>
       <c r="I21" s="16"/>
       <c r="J21" s="24" t="str">
@@ -1308,14 +1403,14 @@
     </row>
     <row r="22" spans="1:22">
       <c r="B22" s="14"/>
-      <c r="C22" s="55" t="str">
+      <c r="C22" s="57" t="str">
         <f t="shared" ref="C22:C41" si="3">IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="17"/>
       <c r="I22" s="16"/>
       <c r="J22" s="24" t="str">
@@ -1334,14 +1429,14 @@
     </row>
     <row r="23" spans="1:22">
       <c r="B23" s="14"/>
-      <c r="C23" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
+      <c r="C23" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="17"/>
       <c r="I23" s="16"/>
       <c r="J23" s="24" t="str">
@@ -1360,14 +1455,14 @@
     </row>
     <row r="24" spans="1:22">
       <c r="B24" s="14"/>
-      <c r="C24" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
+      <c r="C24" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="17"/>
       <c r="I24" s="16"/>
       <c r="J24" s="24" t="str">
@@ -1386,14 +1481,14 @@
     </row>
     <row r="25" spans="1:22">
       <c r="B25" s="14"/>
-      <c r="C25" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
+      <c r="C25" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
       <c r="H25" s="17"/>
       <c r="I25" s="16"/>
       <c r="J25" s="24" t="str">
@@ -1412,14 +1507,14 @@
     </row>
     <row r="26" spans="1:22">
       <c r="B26" s="14"/>
-      <c r="C26" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57"/>
+      <c r="C26" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="17"/>
       <c r="I26" s="16"/>
       <c r="J26" s="24" t="str">
@@ -1438,14 +1533,14 @@
     </row>
     <row r="27" spans="1:22">
       <c r="B27" s="14"/>
-      <c r="C27" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
+      <c r="C27" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
       <c r="H27" s="17"/>
       <c r="I27" s="16"/>
       <c r="J27" s="24" t="str">
@@ -1464,14 +1559,14 @@
     </row>
     <row r="28" spans="1:22">
       <c r="B28" s="14"/>
-      <c r="C28" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57"/>
+      <c r="C28" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
       <c r="H28" s="17"/>
       <c r="I28" s="16"/>
       <c r="J28" s="24" t="str">
@@ -1490,14 +1585,14 @@
     </row>
     <row r="29" spans="1:22">
       <c r="B29" s="14"/>
-      <c r="C29" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="57"/>
+      <c r="C29" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
       <c r="H29" s="17"/>
       <c r="I29" s="16"/>
       <c r="J29" s="24" t="str">
@@ -1516,14 +1611,14 @@
     </row>
     <row r="30" spans="1:22">
       <c r="B30" s="14"/>
-      <c r="C30" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57"/>
+      <c r="C30" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
       <c r="H30" s="17"/>
       <c r="I30" s="16"/>
       <c r="J30" s="24" t="str">
@@ -1542,14 +1637,14 @@
     </row>
     <row r="31" spans="1:22">
       <c r="B31" s="14"/>
-      <c r="C31" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="57"/>
+      <c r="C31" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
       <c r="H31" s="17"/>
       <c r="I31" s="16"/>
       <c r="J31" s="24" t="str">
@@ -1568,14 +1663,14 @@
     </row>
     <row r="32" spans="1:22">
       <c r="B32" s="14"/>
-      <c r="C32" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="57"/>
+      <c r="C32" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
       <c r="H32" s="17"/>
       <c r="I32" s="16"/>
       <c r="J32" s="24" t="str">
@@ -1594,14 +1689,14 @@
     </row>
     <row r="33" spans="2:19">
       <c r="B33" s="14"/>
-      <c r="C33" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="57"/>
+      <c r="C33" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="17"/>
       <c r="I33" s="16"/>
       <c r="J33" s="24" t="str">
@@ -1620,14 +1715,14 @@
     </row>
     <row r="34" spans="2:19">
       <c r="B34" s="14"/>
-      <c r="C34" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="57"/>
+      <c r="C34" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="17"/>
       <c r="I34" s="16"/>
       <c r="J34" s="24" t="str">
@@ -1646,14 +1741,14 @@
     </row>
     <row r="35" spans="2:19">
       <c r="B35" s="14"/>
-      <c r="C35" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="57"/>
+      <c r="C35" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
       <c r="H35" s="17"/>
       <c r="I35" s="16"/>
       <c r="J35" s="24" t="str">
@@ -1672,14 +1767,14 @@
     </row>
     <row r="36" spans="2:19">
       <c r="B36" s="14"/>
-      <c r="C36" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
+      <c r="C36" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="17"/>
       <c r="I36" s="16"/>
       <c r="J36" s="24" t="str">
@@ -1698,14 +1793,14 @@
     </row>
     <row r="37" spans="2:19">
       <c r="B37" s="14"/>
-      <c r="C37" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="57"/>
+      <c r="C37" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
       <c r="H37" s="17"/>
       <c r="I37" s="16"/>
       <c r="J37" s="24" t="str">
@@ -1724,14 +1819,14 @@
     </row>
     <row r="38" spans="2:19">
       <c r="B38" s="14"/>
-      <c r="C38" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="57"/>
+      <c r="C38" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="59"/>
       <c r="H38" s="17"/>
       <c r="I38" s="16"/>
       <c r="J38" s="24" t="str">
@@ -1750,14 +1845,14 @@
     </row>
     <row r="39" spans="2:19">
       <c r="B39" s="14"/>
-      <c r="C39" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="57"/>
+      <c r="C39" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="59"/>
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
       <c r="J39" s="24" t="str">
@@ -1776,14 +1871,14 @@
     </row>
     <row r="40" spans="2:19">
       <c r="B40" s="14"/>
-      <c r="C40" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="57"/>
+      <c r="C40" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="59"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="24" t="str">
@@ -1802,14 +1897,14 @@
     </row>
     <row r="41" spans="2:19">
       <c r="B41" s="14"/>
-      <c r="C41" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="57"/>
+      <c r="C41" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="24" t="str">
@@ -1854,7 +1949,7 @@
       <c r="H43" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I43" s="48">
+      <c r="I43" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J43" s="37" t="str">
@@ -1877,7 +1972,7 @@
       <c r="H44" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="49">
+      <c r="I44" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J44" s="37" t="str">
@@ -1900,7 +1995,7 @@
       <c r="H45" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="49">
+      <c r="I45" s="47">
         <f>I43+I44</f>
         <v>0.05</v>
       </c>
@@ -1924,7 +2019,7 @@
       <c r="H46" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="I46" s="50"/>
+      <c r="I46" s="48"/>
       <c r="J46" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1945,7 +2040,7 @@
       <c r="H47" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="51" t="str">
+      <c r="I47" s="49" t="str">
         <f>IF(K46&lt;&gt;"",IF(K46&gt;=50,"+","-"),"")</f>
         <v/>
       </c>
@@ -1957,54 +2052,54 @@
     </row>
     <row r="48" spans="2:19" ht="15" customHeight="1">
       <c r="B48" s="19"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="79" t="s">
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="I48" s="59"/>
-      <c r="J48" s="78">
+      <c r="I48" s="81"/>
+      <c r="J48" s="51">
         <f>ROUND(S46,0)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="78"/>
+      <c r="K48" s="51"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1">
       <c r="B49" s="20"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1">
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
     </row>
     <row r="51" spans="2:11" ht="17.25">
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
       <c r="H51" s="9"/>
       <c r="I51" s="21"/>
       <c r="J51" s="22"/>
@@ -2023,70 +2118,108 @@
       <c r="K52" s="22"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
       <c r="J53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
     </row>
     <row r="57" spans="2:11" ht="15.75">
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="H57" s="83" t="s">
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="H57" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A3:K4"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C48:G49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
     <mergeCell ref="J48:K49"/>
     <mergeCell ref="H48:H49"/>
     <mergeCell ref="C12:F12"/>
@@ -2103,47 +2236,10 @@
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="A3:K4"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C48:G49"/>
-    <mergeCell ref="I48:I49"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2155,7 +2251,7 @@
   <dimension ref="A3:V58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2171,32 +2267,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="15" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="1:14" ht="9.75" customHeight="1">
       <c r="C5" s="1"/>
@@ -2209,64 +2305,64 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="1:14" ht="7.5" customHeight="1">
       <c r="C10" s="2"/>
@@ -2287,17 +2383,17 @@
       <c r="I11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="1:14" ht="15.75">
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="7" t="s">
         <v>3</v>
       </c>
@@ -2305,45 +2401,45 @@
       <c r="I12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="41" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="42" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="84"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="9.75" customHeight="1" thickBot="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -2352,18 +2448,18 @@
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="71"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="68"/>
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:22" ht="10.5" customHeight="1">
@@ -2380,37 +2476,37 @@
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:22" ht="30.75" customHeight="1">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="11" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="72"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="30"/>
       <c r="B19" s="29"/>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="12"/>
       <c r="I19" s="13"/>
       <c r="J19" s="23" t="str">
@@ -2425,14 +2521,14 @@
     </row>
     <row r="20" spans="1:22">
       <c r="B20" s="14"/>
-      <c r="C20" s="55" t="str">
+      <c r="C20" s="57" t="str">
         <f>IF(R20="","",R20)</f>
         <v/>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="15"/>
       <c r="I20" s="16"/>
       <c r="J20" s="24" t="str">
@@ -2454,14 +2550,14 @@
     </row>
     <row r="21" spans="1:22">
       <c r="B21" s="14"/>
-      <c r="C21" s="55" t="str">
+      <c r="C21" s="57" t="str">
         <f>IF(R21="","",R21)</f>
         <v/>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="17"/>
       <c r="I21" s="16"/>
       <c r="J21" s="24" t="str">
@@ -2480,14 +2576,14 @@
     </row>
     <row r="22" spans="1:22">
       <c r="B22" s="14"/>
-      <c r="C22" s="55" t="str">
+      <c r="C22" s="57" t="str">
         <f t="shared" ref="C22:C41" si="3">IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="17"/>
       <c r="I22" s="16"/>
       <c r="J22" s="24" t="str">
@@ -2506,14 +2602,14 @@
     </row>
     <row r="23" spans="1:22">
       <c r="B23" s="14"/>
-      <c r="C23" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
+      <c r="C23" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="17"/>
       <c r="I23" s="16"/>
       <c r="J23" s="24" t="str">
@@ -2532,14 +2628,14 @@
     </row>
     <row r="24" spans="1:22">
       <c r="B24" s="14"/>
-      <c r="C24" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
+      <c r="C24" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="17"/>
       <c r="I24" s="16"/>
       <c r="J24" s="24" t="str">
@@ -2558,14 +2654,14 @@
     </row>
     <row r="25" spans="1:22">
       <c r="B25" s="14"/>
-      <c r="C25" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
+      <c r="C25" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
       <c r="H25" s="17"/>
       <c r="I25" s="16"/>
       <c r="J25" s="24" t="str">
@@ -2584,14 +2680,14 @@
     </row>
     <row r="26" spans="1:22">
       <c r="B26" s="14"/>
-      <c r="C26" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57"/>
+      <c r="C26" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="17"/>
       <c r="I26" s="16"/>
       <c r="J26" s="24" t="str">
@@ -2610,14 +2706,14 @@
     </row>
     <row r="27" spans="1:22">
       <c r="B27" s="14"/>
-      <c r="C27" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
+      <c r="C27" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
       <c r="H27" s="17"/>
       <c r="I27" s="16"/>
       <c r="J27" s="24" t="str">
@@ -2636,14 +2732,14 @@
     </row>
     <row r="28" spans="1:22">
       <c r="B28" s="14"/>
-      <c r="C28" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57"/>
+      <c r="C28" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
       <c r="H28" s="17"/>
       <c r="I28" s="16"/>
       <c r="J28" s="24" t="str">
@@ -2662,14 +2758,14 @@
     </row>
     <row r="29" spans="1:22">
       <c r="B29" s="14"/>
-      <c r="C29" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="57"/>
+      <c r="C29" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
       <c r="H29" s="17"/>
       <c r="I29" s="16"/>
       <c r="J29" s="24" t="str">
@@ -2688,14 +2784,14 @@
     </row>
     <row r="30" spans="1:22">
       <c r="B30" s="14"/>
-      <c r="C30" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57"/>
+      <c r="C30" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
       <c r="H30" s="17"/>
       <c r="I30" s="16"/>
       <c r="J30" s="24" t="str">
@@ -2714,14 +2810,14 @@
     </row>
     <row r="31" spans="1:22">
       <c r="B31" s="14"/>
-      <c r="C31" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="57"/>
+      <c r="C31" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
       <c r="H31" s="17"/>
       <c r="I31" s="16"/>
       <c r="J31" s="24" t="str">
@@ -2740,14 +2836,14 @@
     </row>
     <row r="32" spans="1:22">
       <c r="B32" s="14"/>
-      <c r="C32" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="57"/>
+      <c r="C32" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
       <c r="H32" s="17"/>
       <c r="I32" s="16"/>
       <c r="J32" s="24" t="str">
@@ -2766,14 +2862,14 @@
     </row>
     <row r="33" spans="2:19">
       <c r="B33" s="14"/>
-      <c r="C33" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="57"/>
+      <c r="C33" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="17"/>
       <c r="I33" s="16"/>
       <c r="J33" s="24" t="str">
@@ -2792,14 +2888,14 @@
     </row>
     <row r="34" spans="2:19">
       <c r="B34" s="14"/>
-      <c r="C34" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="57"/>
+      <c r="C34" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="17"/>
       <c r="I34" s="16"/>
       <c r="J34" s="24" t="str">
@@ -2818,14 +2914,14 @@
     </row>
     <row r="35" spans="2:19">
       <c r="B35" s="14"/>
-      <c r="C35" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="57"/>
+      <c r="C35" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
       <c r="H35" s="17"/>
       <c r="I35" s="16"/>
       <c r="J35" s="24" t="str">
@@ -2844,14 +2940,14 @@
     </row>
     <row r="36" spans="2:19">
       <c r="B36" s="14"/>
-      <c r="C36" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
+      <c r="C36" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="17"/>
       <c r="I36" s="16"/>
       <c r="J36" s="24" t="str">
@@ -2870,14 +2966,14 @@
     </row>
     <row r="37" spans="2:19">
       <c r="B37" s="14"/>
-      <c r="C37" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="57"/>
+      <c r="C37" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
       <c r="H37" s="17"/>
       <c r="I37" s="16"/>
       <c r="J37" s="24" t="str">
@@ -2896,14 +2992,14 @@
     </row>
     <row r="38" spans="2:19">
       <c r="B38" s="14"/>
-      <c r="C38" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="57"/>
+      <c r="C38" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="59"/>
       <c r="H38" s="17"/>
       <c r="I38" s="16"/>
       <c r="J38" s="24" t="str">
@@ -2922,14 +3018,14 @@
     </row>
     <row r="39" spans="2:19">
       <c r="B39" s="14"/>
-      <c r="C39" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="57"/>
+      <c r="C39" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="59"/>
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
       <c r="J39" s="24" t="str">
@@ -2948,14 +3044,14 @@
     </row>
     <row r="40" spans="2:19">
       <c r="B40" s="14"/>
-      <c r="C40" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="57"/>
+      <c r="C40" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="59"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="24" t="str">
@@ -2974,14 +3070,14 @@
     </row>
     <row r="41" spans="2:19">
       <c r="B41" s="14"/>
-      <c r="C41" s="55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="57"/>
+      <c r="C41" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="24" t="str">
@@ -3026,7 +3122,7 @@
       <c r="H43" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I43" s="48">
+      <c r="I43" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J43" s="37" t="str">
@@ -3049,7 +3145,7 @@
       <c r="H44" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="49">
+      <c r="I44" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J44" s="37" t="str">
@@ -3072,7 +3168,7 @@
       <c r="H45" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="49">
+      <c r="I45" s="47">
         <f>I43+I44</f>
         <v>0.05</v>
       </c>
@@ -3096,7 +3192,7 @@
       <c r="H46" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="I46" s="50"/>
+      <c r="I46" s="48"/>
       <c r="J46" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3117,7 +3213,7 @@
       <c r="H47" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="51" t="str">
+      <c r="I47" s="49" t="str">
         <f>IF(K46&lt;&gt;"",IF(K46&gt;=50,"+","-"),"")</f>
         <v/>
       </c>
@@ -3129,54 +3225,54 @@
     </row>
     <row r="48" spans="2:19" ht="15" customHeight="1">
       <c r="B48" s="19"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="79" t="s">
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="I48" s="59"/>
-      <c r="J48" s="78">
+      <c r="I48" s="81"/>
+      <c r="J48" s="51">
         <f>ROUND(S46,0)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="78"/>
+      <c r="K48" s="51"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1">
       <c r="B49" s="20"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1">
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
     </row>
     <row r="51" spans="2:11" ht="17.25">
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
       <c r="H51" s="9"/>
       <c r="I51" s="21"/>
       <c r="J51" s="22"/>
@@ -3195,105 +3291,76 @@
       <c r="K52" s="22"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
       <c r="J53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
     </row>
     <row r="57" spans="2:11" ht="15.75">
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="H57" s="83" t="s">
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="H57" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C48:G49"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A3:K4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="J12:K12"/>
@@ -3307,14 +3374,44 @@
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C23:G23"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A3:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C48:G49"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:F58"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>